--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H2">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J2">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>100.26837202632</v>
+        <v>12.42536487158589</v>
       </c>
       <c r="R2">
-        <v>902.4153482368799</v>
+        <v>111.828283844273</v>
       </c>
       <c r="S2">
-        <v>0.008821810230315415</v>
+        <v>0.001256600397177357</v>
       </c>
       <c r="T2">
-        <v>0.008821810230315415</v>
+        <v>0.001256600397177357</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H3">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J3">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>94.74408547444332</v>
+        <v>21.64091200294067</v>
       </c>
       <c r="R3">
-        <v>852.69676926999</v>
+        <v>194.768208026466</v>
       </c>
       <c r="S3">
-        <v>0.008335772543319291</v>
+        <v>0.002188585920753296</v>
       </c>
       <c r="T3">
-        <v>0.008335772543319292</v>
+        <v>0.002188585920753297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8911683333333333</v>
+        <v>0.2035556666666667</v>
       </c>
       <c r="H4">
-        <v>2.673505</v>
+        <v>0.6106670000000001</v>
       </c>
       <c r="I4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="J4">
-        <v>0.02693425114262819</v>
+        <v>0.006148914270823412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>111.1212546639811</v>
+        <v>26.73467747078622</v>
       </c>
       <c r="R4">
-        <v>1000.09129197583</v>
+        <v>240.612097237076</v>
       </c>
       <c r="S4">
-        <v>0.009776668368993477</v>
+        <v>0.002703727952892758</v>
       </c>
       <c r="T4">
-        <v>0.009776668368993479</v>
+        <v>0.002703727952892758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J5">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>2740.792362589008</v>
+        <v>1486.955156756494</v>
       </c>
       <c r="R5">
-        <v>24667.13126330107</v>
+        <v>13382.59641080844</v>
       </c>
       <c r="S5">
-        <v>0.2411403477969229</v>
+        <v>0.150378557078674</v>
       </c>
       <c r="T5">
-        <v>0.241140347796923</v>
+        <v>0.150378557078674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J6">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>2589.788391105733</v>
@@ -818,10 +818,10 @@
         <v>23308.0955199516</v>
       </c>
       <c r="S6">
-        <v>0.2278547189038985</v>
+        <v>0.2619101454566309</v>
       </c>
       <c r="T6">
-        <v>0.2278547189038985</v>
+        <v>0.261910145456631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>73.07909699999999</v>
       </c>
       <c r="I7">
-        <v>0.7362360466408275</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="J7">
-        <v>0.7362360466408276</v>
+        <v>0.735846381812327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>3037.451191731745</v>
+        <v>3199.36411849879</v>
       </c>
       <c r="R7">
-        <v>27337.0607255857</v>
+        <v>28794.27706648911</v>
       </c>
       <c r="S7">
-        <v>0.2672409799400061</v>
+        <v>0.3235576792770221</v>
       </c>
       <c r="T7">
-        <v>0.2672409799400062</v>
+        <v>0.3235576792770221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H8">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J8">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>881.64800138616</v>
+        <v>521.360754688656</v>
       </c>
       <c r="R8">
-        <v>7934.83201247544</v>
+        <v>4692.246792197905</v>
       </c>
       <c r="S8">
-        <v>0.07756913970961797</v>
+        <v>0.0527261885816021</v>
       </c>
       <c r="T8">
-        <v>0.07756913970961797</v>
+        <v>0.0527261885816021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H9">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J9">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>833.0735995172633</v>
+        <v>908.039508747552</v>
       </c>
       <c r="R9">
-        <v>7497.66239565537</v>
+        <v>8172.355578727967</v>
       </c>
       <c r="S9">
-        <v>0.07329546749694854</v>
+        <v>0.09183173445105204</v>
       </c>
       <c r="T9">
-        <v>0.07329546749694855</v>
+        <v>0.09183173445105206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.835938333333334</v>
+        <v>8.541072</v>
       </c>
       <c r="H10">
-        <v>23.507815</v>
+        <v>25.623216</v>
       </c>
       <c r="I10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="J10">
-        <v>0.2368297022165442</v>
+        <v>0.2580047039168495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>977.0761218732546</v>
+        <v>1121.770810481472</v>
       </c>
       <c r="R10">
-        <v>8793.68509685929</v>
+        <v>10095.93729433325</v>
       </c>
       <c r="S10">
-        <v>0.0859650950099777</v>
+        <v>0.1134467808841954</v>
       </c>
       <c r="T10">
-        <v>0.08596509500997772</v>
+        <v>0.1134467808841954</v>
       </c>
     </row>
   </sheetData>
